--- a/LP Inventory/sS policy/Uniform_demand/Policy20.xlsx
+++ b/LP Inventory/sS policy/Uniform_demand/Policy20.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="foc=0" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Decision Epoch</t>
   </si>
@@ -140,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +151,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -160,9 +167,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,19 +487,19 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -1336,23 +1340,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3">
         <v>0</v>
@@ -1388,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
@@ -1426,39 +1430,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -1471,4 +1475,1006 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:Q28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F1" s="2"/>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>6</v>
+      </c>
+      <c r="N2" s="5">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="5"/>
+      <c r="G25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4</v>
+      </c>
+      <c r="L26" s="5">
+        <v>5</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6</v>
+      </c>
+      <c r="N26" s="5">
+        <v>7</v>
+      </c>
+      <c r="O26" s="5">
+        <v>8</v>
+      </c>
+      <c r="P26" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1">
+        <v>13</v>
+      </c>
+      <c r="J27" s="1">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1">
+        <v>13</v>
+      </c>
+      <c r="L27" s="1">
+        <v>13</v>
+      </c>
+      <c r="M27" s="1">
+        <v>13</v>
+      </c>
+      <c r="N27" s="1">
+        <v>13</v>
+      </c>
+      <c r="O27" s="1">
+        <v>12</v>
+      </c>
+      <c r="P27" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1">
+        <v>13</v>
+      </c>
+      <c r="L28" s="1">
+        <v>13</v>
+      </c>
+      <c r="M28" s="1">
+        <v>13</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13</v>
+      </c>
+      <c r="O28" s="1">
+        <v>12</v>
+      </c>
+      <c r="P28" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="G25:Q25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>